--- a/Shading Trees/Sensitivity Results/Shading Trees - Number of coffee plants per hectare.xlsx
+++ b/Shading Trees/Sensitivity Results/Shading Trees - Number of coffee plants per hectare.xlsx
@@ -631,70 +631,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.9000001428648829</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="E4">
-        <v>-1.000000158324838</v>
+        <v>0.542598289437592</v>
       </c>
       <c r="F4">
-        <v>-1.111111110651199</v>
+        <v>0.5425982035308196</v>
       </c>
       <c r="G4">
-        <v>-0.9000000003725289</v>
+        <v>1.84298435470806</v>
       </c>
       <c r="H4">
-        <v>-0.0005181713204365224</v>
+        <v>0.02437005793035496</v>
       </c>
       <c r="I4">
-        <v>-0.0009185673316096654</v>
+        <v>0.002905370205553481</v>
       </c>
       <c r="J4">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002043773873992905</v>
       </c>
       <c r="K4">
-        <v>-0.06491394690237939</v>
+        <v>0.04847385245375335</v>
       </c>
       <c r="L4">
-        <v>-0.00409148377366364</v>
+        <v>0.04699664795771241</v>
       </c>
       <c r="M4">
-        <v>-0.09720575390383601</v>
+        <v>0.02383753703907132</v>
       </c>
       <c r="N4">
-        <v>0.0004663541913032532</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="O4">
-        <v>0.0008267106022685766</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="P4">
-        <v>1.264391357835848e-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q4">
-        <v>0.05842255218885839</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="R4">
-        <v>0.08748517837375402</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="S4">
-        <v>0.003682334907352924</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="T4">
-        <v>0.0108297806000337</v>
+        <v>-0.4868829872866627</v>
       </c>
       <c r="U4">
-        <v>0.01919805723446188</v>
+        <v>-0.05718883677945996</v>
       </c>
       <c r="V4">
-        <v>2.936197506642202e-05</v>
+        <v>-0.04087407260067266</v>
       </c>
       <c r="W4">
-        <v>1.356701490236446</v>
+        <v>-0.9045631021726876</v>
       </c>
       <c r="X4">
-        <v>2.031600256450474</v>
+        <v>-0.3795449868775904</v>
       </c>
       <c r="Y4">
-        <v>0.08551201038062572</v>
+        <v>-0.9358414753805846</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -704,70 +704,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0.9700001543387771</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="E5">
-        <v>-1.000000158324838</v>
+        <v>0.5903236195445061</v>
       </c>
       <c r="F5">
-        <v>-1.030927834239893</v>
+        <v>0.5903235260816296</v>
       </c>
       <c r="G5">
-        <v>-0.9700000007636844</v>
+        <v>1.693986358019078</v>
       </c>
       <c r="H5">
-        <v>-0.0005181713204365224</v>
+        <v>0.02639816209557466</v>
       </c>
       <c r="I5">
-        <v>-0.0009185673316096654</v>
+        <v>0.002941485990959336</v>
       </c>
       <c r="J5">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002216603440501785</v>
       </c>
       <c r="K5">
-        <v>-0.06491394690237939</v>
+        <v>0.05249845422804356</v>
       </c>
       <c r="L5">
-        <v>-0.00409148377366364</v>
+        <v>0.05075550568290055</v>
       </c>
       <c r="M5">
-        <v>-0.09720575390383601</v>
+        <v>0.02865030895918608</v>
       </c>
       <c r="N5">
-        <v>0.000502626207889989</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="O5">
-        <v>0.0008910103115340462</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="P5">
-        <v>1.362733200949151e-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q5">
-        <v>0.06296652834862471</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="R5">
-        <v>0.09428958129137754</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="S5">
-        <v>0.003968738950788975</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="T5">
-        <v>0.01086605261662044</v>
+        <v>-0.5274450705910567</v>
       </c>
       <c r="U5">
-        <v>0.01926235694372735</v>
+        <v>-0.05791115248757706</v>
       </c>
       <c r="V5">
-        <v>2.946031690953532e-05</v>
+        <v>-0.04433066393085028</v>
       </c>
       <c r="W5">
-        <v>1.361245466396213</v>
+        <v>-0.9850551376584917</v>
       </c>
       <c r="X5">
-        <v>2.038404659368098</v>
+        <v>-0.4758004252798855</v>
       </c>
       <c r="Y5">
-        <v>0.08579841442406178</v>
+        <v>-1.011018629884347</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -777,70 +777,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>1.040000165812671</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="E6">
-        <v>-1.000000158324838</v>
+        <v>0.6380489440634847</v>
       </c>
       <c r="F6">
-        <v>-0.9615384604707472</v>
+        <v>0.6380488430445052</v>
       </c>
       <c r="G6">
-        <v>-1.04000000115484</v>
+        <v>1.567278133799936</v>
       </c>
       <c r="H6">
-        <v>-0.0005181713204365224</v>
+        <v>0.02842626601341181</v>
       </c>
       <c r="I6">
-        <v>-0.0009185673316096654</v>
+        <v>0.002977601769089233</v>
       </c>
       <c r="J6">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002389432987911277</v>
       </c>
       <c r="K6">
-        <v>-0.06491394690237939</v>
+        <v>0.05652305576950312</v>
       </c>
       <c r="L6">
-        <v>-0.00409148377366364</v>
+        <v>0.05451436364091933</v>
       </c>
       <c r="M6">
-        <v>-0.09720575390383601</v>
+        <v>0.03346307948231697</v>
       </c>
       <c r="N6">
-        <v>0.0005388981808209792</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="O6">
-        <v>0.0009553100280754734</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="P6">
-        <v>1.461075044062454e-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q6">
-        <v>0.06751050450839102</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="R6">
-        <v>0.1010939842090011</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="S6">
-        <v>0.004255143459886312</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="T6">
-        <v>0.01090232458955143</v>
+        <v>-0.5680071489477996</v>
       </c>
       <c r="U6">
-        <v>0.01932665666026878</v>
+        <v>-0.058633468050175</v>
       </c>
       <c r="V6">
-        <v>2.955865875264863e-05</v>
+        <v>-0.04778725487904012</v>
       </c>
       <c r="W6">
-        <v>1.365789442555979</v>
+        <v>-1.065547168487683</v>
       </c>
       <c r="X6">
-        <v>2.045209062285721</v>
+        <v>-0.5720558357425034</v>
       </c>
       <c r="Y6">
-        <v>0.08608481893315911</v>
+        <v>-1.086195789044723</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -850,70 +850,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>1.11000017542392</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="E7">
-        <v>-1.000000158324838</v>
+        <v>0.6857742639258504</v>
       </c>
       <c r="F7">
-        <v>-0.9009009011579009</v>
+        <v>0.6857741553507686</v>
       </c>
       <c r="G7">
-        <v>-1.10999999968335</v>
+        <v>1.458206017531394</v>
       </c>
       <c r="H7">
-        <v>-0.0005181713204365224</v>
+        <v>0.0304543697857298</v>
       </c>
       <c r="I7">
-        <v>-0.0009185673316096654</v>
+        <v>0.003013717541762162</v>
       </c>
       <c r="J7">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002562262520768854</v>
       </c>
       <c r="K7">
-        <v>-0.06491394690237939</v>
+        <v>0.06054765731096268</v>
       </c>
       <c r="L7">
-        <v>-0.00409148377366364</v>
+        <v>0.05827322043478489</v>
       </c>
       <c r="M7">
-        <v>-0.09720575390383601</v>
+        <v>0.03827584953978658</v>
       </c>
       <c r="N7">
-        <v>0.000575170197407715</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="O7">
-        <v>0.001019609739159932</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="P7">
-        <v>1.559415977681056e-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q7">
-        <v>0.07205448066815734</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="R7">
-        <v>0.1078983871266246</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="S7">
-        <v>0.004541547037661076</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="T7">
-        <v>0.01093859660613816</v>
+        <v>-0.6085692243941594</v>
       </c>
       <c r="U7">
-        <v>0.01939095637135324</v>
+        <v>-0.05935578350363357</v>
       </c>
       <c r="V7">
-        <v>2.965699968626723e-05</v>
+        <v>-0.05124384553619166</v>
       </c>
       <c r="W7">
-        <v>1.370333418715745</v>
+        <v>-1.146039199316874</v>
       </c>
       <c r="X7">
-        <v>2.052013465203345</v>
+        <v>-0.6683112368918955</v>
       </c>
       <c r="Y7">
-        <v>0.08637122251093388</v>
+        <v>-1.161372924922034</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -923,70 +923,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>1.180000188760459</v>
+        <v>1.000000158324838</v>
       </c>
       <c r="E8">
-        <v>-1.000000158324838</v>
+        <v>0.7334995800629258</v>
       </c>
       <c r="F8">
-        <v>-0.8474576257274127</v>
+        <v>0.7334994639317423</v>
       </c>
       <c r="G8">
-        <v>-1.180000001937151</v>
+        <v>1.363327513069672</v>
       </c>
       <c r="H8">
-        <v>-0.0005181713204365224</v>
+        <v>0.03248247332521714</v>
       </c>
       <c r="I8">
-        <v>-0.0009185673316096654</v>
+        <v>0.003049833314435091</v>
       </c>
       <c r="J8">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002735092035436537</v>
       </c>
       <c r="K8">
-        <v>-0.06491394690237939</v>
+        <v>0.06457225815393031</v>
       </c>
       <c r="L8">
-        <v>-0.00409148377366364</v>
+        <v>0.06203207722865045</v>
       </c>
       <c r="M8">
-        <v>-0.09720575390383601</v>
+        <v>0.04308861959725618</v>
       </c>
       <c r="N8">
-        <v>0.0006114421703387052</v>
+        <v>0.0005181713204365224</v>
       </c>
       <c r="O8">
-        <v>0.001083909450244391</v>
+        <v>0.0009185673316096654</v>
       </c>
       <c r="P8">
-        <v>1.657758730289061e-06</v>
+        <v>1.404879185429309e-06</v>
       </c>
       <c r="Q8">
-        <v>0.0765984570607543</v>
+        <v>0.06491394690237939</v>
       </c>
       <c r="R8">
-        <v>0.1147027895785868</v>
+        <v>0.09720575390383601</v>
       </c>
       <c r="S8">
-        <v>0.004827951081097126</v>
+        <v>0.00409148377366364</v>
       </c>
       <c r="T8">
-        <v>0.01097486857906915</v>
+        <v>-0.6491312951839063</v>
       </c>
       <c r="U8">
-        <v>0.0194552560824377</v>
+        <v>-0.06007809895709215</v>
       </c>
       <c r="V8">
-        <v>2.975534243887523e-05</v>
+        <v>-0.05470043582954531</v>
       </c>
       <c r="W8">
-        <v>1.374877395108342</v>
+        <v>-1.226531216176227</v>
       </c>
       <c r="X8">
-        <v>2.058817867655307</v>
+        <v>-0.7645666380412877</v>
       </c>
       <c r="Y8">
-        <v>0.08665762655436993</v>
+        <v>-1.236550060799345</v>
       </c>
     </row>
   </sheetData>

--- a/Shading Trees/Sensitivity Results/Shading Trees - Number of coffee plants per hectare.xlsx
+++ b/Shading Trees/Sensitivity Results/Shading Trees - Number of coffee plants per hectare.xlsx
@@ -631,70 +631,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E4">
-        <v>0.542598289437592</v>
+        <v>2904.218707803637</v>
       </c>
       <c r="F4">
-        <v>0.5425982035308196</v>
+        <v>0.5405207971444107</v>
       </c>
       <c r="G4">
-        <v>1.84298435470806</v>
+        <v>1.850067574241423</v>
       </c>
       <c r="H4">
-        <v>0.02437005793035496</v>
+        <v>130.4770519271406</v>
       </c>
       <c r="I4">
-        <v>0.002905370205553481</v>
+        <v>15.62149409304038</v>
       </c>
       <c r="J4">
-        <v>0.002043773873992905</v>
+        <v>10.94168601975434</v>
       </c>
       <c r="K4">
-        <v>0.04847385245375335</v>
+        <v>259.5308018387295</v>
       </c>
       <c r="L4">
-        <v>0.04699664795771241</v>
+        <v>251.6561699544545</v>
       </c>
       <c r="M4">
-        <v>0.02383753703907132</v>
+        <v>126.7164286980405</v>
       </c>
       <c r="N4">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O4">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P4">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q4">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R4">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S4">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T4">
-        <v>-0.4868829872866627</v>
+        <v>-2606.75690399982</v>
       </c>
       <c r="U4">
-        <v>-0.05718883677945996</v>
+        <v>-307.4944196094075</v>
       </c>
       <c r="V4">
-        <v>-0.04087407260067266</v>
+        <v>-218.8261719701923</v>
       </c>
       <c r="W4">
-        <v>-0.9045631021726876</v>
+        <v>-4841.833402155666</v>
       </c>
       <c r="X4">
-        <v>-0.3795449868775904</v>
+        <v>-2012.042057325598</v>
       </c>
       <c r="Y4">
-        <v>-0.9358414753805846</v>
+        <v>-5011.139856095193</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -704,70 +704,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E5">
-        <v>0.5903236195445061</v>
+        <v>3158.894986740313</v>
       </c>
       <c r="F5">
-        <v>0.5903235260816296</v>
+        <v>0.5879200597876607</v>
       </c>
       <c r="G5">
-        <v>1.693986358019078</v>
+        <v>1.700911515693427</v>
       </c>
       <c r="H5">
-        <v>0.02639816209557466</v>
+        <v>141.2996040211729</v>
       </c>
       <c r="I5">
-        <v>0.002941485990959336</v>
+        <v>15.81421215635055</v>
       </c>
       <c r="J5">
-        <v>0.002216603440501785</v>
+        <v>11.86395487017035</v>
       </c>
       <c r="K5">
-        <v>0.05249845422804356</v>
+        <v>281.0072454321198</v>
       </c>
       <c r="L5">
-        <v>0.05075550568290055</v>
+        <v>271.7145184960682</v>
       </c>
       <c r="M5">
-        <v>0.02865030895918608</v>
+        <v>152.3988583693281</v>
       </c>
       <c r="N5">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O5">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P5">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q5">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R5">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S5">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T5">
-        <v>-0.5274450705910567</v>
+        <v>-2823.207945880466</v>
       </c>
       <c r="U5">
-        <v>-0.05791115248757706</v>
+        <v>-311.3487808756108</v>
       </c>
       <c r="V5">
-        <v>-0.04433066393085028</v>
+        <v>-237.2715489785123</v>
       </c>
       <c r="W5">
-        <v>-0.9850551376584917</v>
+        <v>-5271.362274023471</v>
       </c>
       <c r="X5">
-        <v>-0.4758004252798855</v>
+        <v>-2525.690650751349</v>
       </c>
       <c r="Y5">
-        <v>-1.011018629884347</v>
+        <v>-5412.306826927466</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -777,70 +777,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E6">
-        <v>0.6380489440634847</v>
+        <v>3413.440785474144</v>
       </c>
       <c r="F6">
-        <v>0.6380488430445052</v>
+        <v>0.6352950380121566</v>
       </c>
       <c r="G6">
-        <v>1.567278133799936</v>
+        <v>1.574071793680316</v>
       </c>
       <c r="H6">
-        <v>0.02842626601341181</v>
+        <v>152.1166113162471</v>
       </c>
       <c r="I6">
-        <v>0.002977601769089233</v>
+        <v>16.00683148296594</v>
       </c>
       <c r="J6">
-        <v>0.002389432987911277</v>
+        <v>12.78575120769437</v>
       </c>
       <c r="K6">
-        <v>0.05652305576950312</v>
+        <v>302.472685838351</v>
       </c>
       <c r="L6">
-        <v>0.05451436364091933</v>
+        <v>291.7625903938897</v>
       </c>
       <c r="M6">
-        <v>0.03346307948231697</v>
+        <v>178.0681299697608</v>
       </c>
       <c r="N6">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O6">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P6">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q6">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R6">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S6">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T6">
-        <v>-0.5680071489477996</v>
+        <v>-3039.548091781951</v>
       </c>
       <c r="U6">
-        <v>-0.058633468050175</v>
+        <v>-315.2011674079185</v>
       </c>
       <c r="V6">
-        <v>-0.04778725487904012</v>
+        <v>-255.7074757289929</v>
       </c>
       <c r="W6">
-        <v>-1.065547168487683</v>
+        <v>-5700.671082148096</v>
       </c>
       <c r="X6">
-        <v>-0.5720558357425034</v>
+        <v>-3039.076082760002</v>
       </c>
       <c r="Y6">
-        <v>-1.086195789044723</v>
+        <v>-5813.268264883896</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -850,70 +850,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E7">
-        <v>0.6857742639258504</v>
+        <v>3667.856204257347</v>
       </c>
       <c r="F7">
-        <v>0.6857741553507686</v>
+        <v>0.6826457504764135</v>
       </c>
       <c r="G7">
-        <v>1.458206017531394</v>
+        <v>1.464888632650401</v>
       </c>
       <c r="H7">
-        <v>0.0304543697857298</v>
+        <v>162.9280780724803</v>
       </c>
       <c r="I7">
-        <v>0.003013717541762162</v>
+        <v>16.19935214875841</v>
       </c>
       <c r="J7">
-        <v>0.002562262520768854</v>
+        <v>13.70707539536306</v>
       </c>
       <c r="K7">
-        <v>0.06054765731096268</v>
+        <v>323.9271315115038</v>
       </c>
       <c r="L7">
-        <v>0.05827322043478489</v>
+        <v>311.8003935443703</v>
       </c>
       <c r="M7">
-        <v>0.03827584953978658</v>
+        <v>203.7242536088452</v>
       </c>
       <c r="N7">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O7">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P7">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q7">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R7">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S7">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T7">
-        <v>-0.6085692243941594</v>
+        <v>-3255.777426906614</v>
       </c>
       <c r="U7">
-        <v>-0.05935578350363357</v>
+        <v>-319.051580723768</v>
       </c>
       <c r="V7">
-        <v>-0.05124384553619166</v>
+        <v>-274.1339594823667</v>
       </c>
       <c r="W7">
-        <v>-1.146039199316874</v>
+        <v>-6129.759995611152</v>
       </c>
       <c r="X7">
-        <v>-0.6683112368918955</v>
+        <v>-3552.19855554169</v>
       </c>
       <c r="Y7">
-        <v>-1.161372924922034</v>
+        <v>-6214.024327893509</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -923,70 +923,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E8">
-        <v>0.7334995800629258</v>
+        <v>3922.141343234107</v>
       </c>
       <c r="F8">
-        <v>0.7334994639317423</v>
+        <v>0.7299722158188401</v>
       </c>
       <c r="G8">
-        <v>1.363327513069672</v>
+        <v>1.369915153384651</v>
       </c>
       <c r="H8">
-        <v>0.03248247332521714</v>
+        <v>173.7340085455799</v>
       </c>
       <c r="I8">
-        <v>0.003049833314435091</v>
+        <v>16.39177422951252</v>
       </c>
       <c r="J8">
-        <v>0.002735092035436537</v>
+        <v>14.62792779584288</v>
       </c>
       <c r="K8">
-        <v>0.06457225815393031</v>
+        <v>345.3705908970442</v>
       </c>
       <c r="L8">
-        <v>0.06203207722865045</v>
+        <v>331.8279358339496</v>
       </c>
       <c r="M8">
-        <v>0.04308861959725618</v>
+        <v>229.367239384912</v>
       </c>
       <c r="N8">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O8">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P8">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q8">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R8">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S8">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T8">
-        <v>-0.6491312951839063</v>
+        <v>-3471.896036368606</v>
       </c>
       <c r="U8">
-        <v>-0.06007809895709215</v>
+        <v>-322.9000223388502</v>
       </c>
       <c r="V8">
-        <v>-0.05470043582954531</v>
+        <v>-292.551007491963</v>
       </c>
       <c r="W8">
-        <v>-1.226531216176227</v>
+        <v>-6558.629183321958</v>
       </c>
       <c r="X8">
-        <v>-0.7645666380412877</v>
+        <v>-4065.058271063026</v>
       </c>
       <c r="Y8">
-        <v>-1.236550060799345</v>
+        <v>-6614.575173685094</v>
       </c>
     </row>
   </sheetData>
